--- a/new_file.xlsx
+++ b/new_file.xlsx
@@ -14,21 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>56</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>У</t>
+  </si>
+  <si>
+    <t>б</t>
+  </si>
+  <si>
+    <t>р</t>
+  </si>
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>т</t>
+  </si>
+  <si>
+    <t>ь</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>у</t>
+  </si>
+  <si>
+    <t>х</t>
+  </si>
+  <si>
+    <t>н</t>
+  </si>
+  <si>
+    <t>ю</t>
   </si>
 </sst>
 </file>
@@ -360,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,7 +389,62 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
